--- a/build/website/ValueSet-ms-abo-group-codes.xlsx
+++ b/build/website/ValueSet-ms-abo-group-codes.xlsx
@@ -38,13 +38,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MSABOGroup</t>
+    <t>MSABOGroupVS</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>ABO Group Codes for MatchSource</t>
+    <t>MatchSource ABO Group Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T09:36:20-05:00</t>
+    <t>2022-05-26T13:36:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -77,7 +77,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ABO Group Codes for MatchSource. Combines LOINC and NMDP codes</t>
+    <t>MatchSource ABO group codes. Combines LOINC, Snomed, and NMDP codes</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -101,7 +101,7 @@
     <t>http://loinc.org/vs/LL2419-1</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/sct-abo-group</t>
+    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/sct-abo-group-codes</t>
   </si>
 </sst>
 </file>
